--- a/fileserv/SvtBasicInfoBotBrandNew.xlsx
+++ b/fileserv/SvtBasicInfoBotBrandNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FGOUnpacking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16450D6-E75A-4F81-80E9-7C40C73BF701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F52EE2-9518-4E0F-8885-26886D65FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2E2D8D2F-8E67-4418-943A-1DAF8894FA74}"/>
   </bookViews>
@@ -939,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,10 +952,217 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,15 +1171,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,9 +1180,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,205 +1195,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,1225 +1737,1216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B872FEBA-1A86-494C-A7AE-5F4524B13C34}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="64"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="55"/>
+      <c r="I11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
+      <c r="J11" s="55"/>
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="55"/>
+      <c r="M11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
     </row>
     <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
     </row>
     <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
     </row>
     <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="5" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="29" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
     </row>
     <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
     </row>
     <row r="30" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="31" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
     </row>
     <row r="32" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="51"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
     </row>
     <row r="33" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
     </row>
     <row r="34" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="5" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="36"/>
     </row>
     <row r="36" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="55"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="9"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="36"/>
     </row>
     <row r="37" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="33"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="39"/>
     </row>
     <row r="38" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="5" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="9"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="36"/>
     </row>
     <row r="41" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="55"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="9"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="39"/>
     </row>
     <row r="43" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="51"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
     </row>
     <row r="44" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="47"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="5" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="9"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="36"/>
     </row>
     <row r="46" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="55"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="5" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="9"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="36"/>
     </row>
     <row r="47" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="33"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="39"/>
     </row>
     <row r="48" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="51"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
     </row>
     <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="47"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="29"/>
     </row>
     <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="73" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="77"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="32"/>
     </row>
     <row r="51" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="78"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="80" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="61"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="73" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="85"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="18"/>
     </row>
     <row r="53" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="80" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="61"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="73" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="85"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="18"/>
     </row>
     <row r="55" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="78"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="80" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="61"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
     </row>
     <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="73" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="85"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="78"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="80" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="61"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
     </row>
     <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="72"/>
-      <c r="C58" s="73" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="74"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="85"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="18"/>
     </row>
     <row r="59" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="78"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="80" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="61"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="58"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="61"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A60:N60"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:N56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:N59"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:N20"/>
+    <mergeCell ref="C17:N18"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -2983,66 +2971,75 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:N20"/>
-    <mergeCell ref="C17:N18"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="A60:N60"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:N59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fileserv/SvtBasicInfoBotBrandNew.xlsx
+++ b/fileserv/SvtBasicInfoBotBrandNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FGOUnpacking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F52EE2-9518-4E0F-8885-26886D65FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9E677-9F1A-4443-B240-500CE0869A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2E2D8D2F-8E67-4418-943A-1DAF8894FA74}"/>
   </bookViews>
@@ -952,6 +952,231 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -964,239 +1189,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1738,1166 +1738,1273 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M12" sqref="M12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="36"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="36"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="36"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="85"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="36"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="55" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55" t="s">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="77"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="55" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="85"/>
     </row>
     <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="55" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
     </row>
     <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="35" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="36"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="36"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="19" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
     </row>
     <row r="20" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="60" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="61" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="36"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="54" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="36"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="55" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="36"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="56" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="53"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="36"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="39"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="38"/>
     </row>
     <row r="32" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="26"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
     </row>
     <row r="33" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="60"/>
     </row>
     <row r="34" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="52"/>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="35" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="36"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="35"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="36"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="39"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="38"/>
     </row>
     <row r="38" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="26"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="57"/>
     </row>
     <row r="39" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="35" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="36"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="35"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="36"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="39"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="57"/>
     </row>
     <row r="44" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="52"/>
     </row>
     <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="35" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="35"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="36"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="35"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="36"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="38"/>
     </row>
     <row r="48" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="26"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="57"/>
     </row>
     <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="52"/>
     </row>
     <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="32"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="70"/>
     </row>
     <row r="51" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="19" t="s">
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="75"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="63"/>
+      <c r="C52" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="18"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="78"/>
     </row>
     <row r="53" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="19" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="9"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="75"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="18"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="78"/>
     </row>
     <row r="55" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="19" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="9"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="75"/>
     </row>
     <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="63"/>
+      <c r="C56" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="18"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="78"/>
     </row>
     <row r="57" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="19" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="9"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="75"/>
     </row>
     <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="63"/>
+      <c r="C58" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="18"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="78"/>
     </row>
     <row r="59" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="19" t="s">
+      <c r="A59" s="64"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="9"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="75"/>
     </row>
     <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="6"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="81"/>
     </row>
     <row r="61" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="9"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A60:N60"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:N20"/>
+    <mergeCell ref="C17:N18"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="M4:N4"/>
@@ -2922,124 +3029,17 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:N20"/>
-    <mergeCell ref="C17:N18"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="A60:N60"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:N56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J9:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fileserv/SvtBasicInfoBotBrandNew.xlsx
+++ b/fileserv/SvtBasicInfoBotBrandNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FGOUnpacking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9E677-9F1A-4443-B240-500CE0869A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338C9BD-5925-444A-AF63-0A78C8A3C50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2E2D8D2F-8E67-4418-943A-1DAF8894FA74}"/>
   </bookViews>
@@ -952,10 +952,217 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,232 +1171,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,6 +1179,24 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1365,15 +1365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>789213</xdr:rowOff>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>688363</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>5641</xdr:rowOff>
+      <xdr:colOff>688362</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>304999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1388,8 +1388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8458201" y="28041599"/>
-          <a:ext cx="1287076" cy="228799"/>
+          <a:off x="8458200" y="26196470"/>
+          <a:ext cx="1287076" cy="228800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1422,7 +1422,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="600" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="思源黑体" panose="020B0500000000000000" pitchFamily="34" charset="-122"/>
@@ -1737,1225 +1737,1216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B872FEBA-1A86-494C-A7AE-5F4524B13C34}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:N13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="18"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="55"/>
+      <c r="I11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
+      <c r="J11" s="55"/>
+      <c r="K11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="55"/>
+      <c r="M11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
     </row>
     <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
     </row>
     <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
     </row>
     <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="5" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
     </row>
     <row r="18" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="34" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="35" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="45" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
     </row>
     <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
     </row>
     <row r="30" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="31" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="38"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
     </row>
     <row r="32" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
     </row>
     <row r="33" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
     </row>
     <row r="34" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="52"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="5" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="36"/>
     </row>
     <row r="36" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="9"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="36"/>
     </row>
     <row r="37" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="38"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="39"/>
     </row>
     <row r="38" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="57"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="52"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="5" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="9"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="36"/>
     </row>
     <row r="41" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="61"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="9"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="38"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="39"/>
     </row>
     <row r="43" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="57"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
     </row>
     <row r="44" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="52"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
     </row>
     <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="5" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="9"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="36"/>
     </row>
     <row r="46" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="61"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="5" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="9"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="36"/>
     </row>
     <row r="47" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="38"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="39"/>
     </row>
     <row r="48" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="57"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
     </row>
     <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="52"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="29"/>
     </row>
     <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="66" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="70"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="32"/>
     </row>
     <row r="51" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="71" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="75"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="66" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="78"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="18"/>
     </row>
     <row r="53" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="71" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="75"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="66" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="78"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="18"/>
     </row>
     <row r="55" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="71" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="75"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
     </row>
     <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="66" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="78"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="71" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="75"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
     </row>
     <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="66" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="78"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="18"/>
     </row>
     <row r="59" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="71" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="75"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="81"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="82"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="75"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A60:N60"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:N56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:N59"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:N20"/>
+    <mergeCell ref="C17:N18"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -2980,66 +2971,75 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:N20"/>
-    <mergeCell ref="C17:N18"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="A60:N60"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:N59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fileserv/SvtBasicInfoBotBrandNew.xlsx
+++ b/fileserv/SvtBasicInfoBotBrandNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FGOUnpacking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338C9BD-5925-444A-AF63-0A78C8A3C50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723475-2E3A-43B5-A3DF-ED09244FF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2E2D8D2F-8E67-4418-943A-1DAF8894FA74}"/>
   </bookViews>
@@ -939,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +952,237 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -961,242 +1192,17 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1737,1167 +1743,1274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B872FEBA-1A86-494C-A7AE-5F4524B13C34}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="36"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="36"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="36"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="85"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="36"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="55" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55" t="s">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="77"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="55" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="55" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="35" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="36"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="36"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="60" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="61" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="54" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="36"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="55" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="36"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="56" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
     </row>
     <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="53"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="45"/>
     </row>
     <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
     </row>
     <row r="30" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="36"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="39"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="26"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
     </row>
     <row r="33" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
     </row>
     <row r="34" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="35" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="36"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="35"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="36"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="39"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="26"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="59"/>
     </row>
     <row r="39" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="54"/>
     </row>
     <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="35" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="36"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="35"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="36"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="39"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="40"/>
     </row>
     <row r="43" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="59"/>
     </row>
     <row r="44" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="54"/>
     </row>
     <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="35" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="35"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="36"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="35"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="36"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="40"/>
     </row>
     <row r="48" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="26"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="59"/>
     </row>
     <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="54"/>
     </row>
     <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="65"/>
+      <c r="C50" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="32"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="72"/>
     </row>
     <row r="51" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="19" t="s">
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="77"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="18"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="80"/>
     </row>
     <row r="53" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="19" t="s">
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="9"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="77"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="18"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="80"/>
     </row>
     <row r="55" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="19" t="s">
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="9"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="77"/>
     </row>
     <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="65"/>
+      <c r="C56" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="18"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="80"/>
     </row>
     <row r="57" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="19" t="s">
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="9"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="77"/>
     </row>
     <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="18"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="80"/>
     </row>
     <row r="59" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="19" t="s">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="9"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="77"/>
     </row>
     <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="6"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="83"/>
     </row>
     <row r="61" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="9"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A60:N60"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:N20"/>
+    <mergeCell ref="C17:N18"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="M4:N4"/>
@@ -2922,124 +3035,17 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:N20"/>
-    <mergeCell ref="C17:N18"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="A60:N60"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:N56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J9:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fileserv/SvtBasicInfoBotBrandNew.xlsx
+++ b/fileserv/SvtBasicInfoBotBrandNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FGOUnpacking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723475-2E3A-43B5-A3DF-ED09244FF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67E7A2-DE83-4D73-8625-71B0F302CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{2E2D8D2F-8E67-4418-943A-1DAF8894FA74}"/>
   </bookViews>
@@ -952,10 +952,214 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,15 +1168,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,9 +1177,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,206 +1195,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1750,1130 +1750,1130 @@
   <sheetFormatPr defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="20"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="84"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="54"/>
+      <c r="M11" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="76"/>
     </row>
     <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78"/>
     </row>
     <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
     </row>
     <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="75"/>
     </row>
     <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="5" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="35"/>
     </row>
     <row r="17" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="19" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
     </row>
     <row r="20" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50" t="s">
+      <c r="F21" s="57"/>
+      <c r="G21" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="36" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="46" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="47" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="42"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
     </row>
     <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="26"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
     </row>
     <row r="30" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="35"/>
     </row>
     <row r="31" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="38"/>
     </row>
     <row r="32" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="44"/>
     </row>
     <row r="34" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="54"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="5" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="35"/>
     </row>
     <row r="36" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="63"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="9"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="35"/>
     </row>
     <row r="37" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="40"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="38"/>
     </row>
     <row r="38" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="59"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="54"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="5" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="9"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="63"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="9"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="35"/>
     </row>
     <row r="42" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="40"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="59"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
     </row>
     <row r="44" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="54"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="28"/>
     </row>
     <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="5" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="9"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="35"/>
     </row>
     <row r="46" spans="1:14" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="63"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="5" t="s">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="9"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="35"/>
     </row>
     <row r="47" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="40"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="38"/>
     </row>
     <row r="48" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="59"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="25"/>
     </row>
     <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="54"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="28"/>
     </row>
     <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="68" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="72"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="31"/>
     </row>
     <row r="51" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="73" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="77"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="68" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="80"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="73" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="77"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="20"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="68" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="80"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="73" t="s">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="77"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="68" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="80"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="66"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="73" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="77"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="20"/>
     </row>
     <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="68" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="80"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="73" t="s">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="77"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="20"/>
     </row>
     <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="83"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" ht="80.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="85"/>
@@ -2893,75 +2893,66 @@
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A60:N60"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:N56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:N57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:N58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:N59"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:N50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:N20"/>
+    <mergeCell ref="C17:N18"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -2986,66 +2977,75 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:N20"/>
-    <mergeCell ref="C17:N18"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="A60:N60"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:N56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:N57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:N58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:N59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
